--- a/biology/Histoire de la zoologie et de la botanique/Claude_Antoine_Thory/Claude_Antoine_Thory.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Claude_Antoine_Thory/Claude_Antoine_Thory.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Antoine Thory né le 26 mai 1757 et mort le 22 octobre 1827 à Paris est un écrivain, naturaliste et collectionneur de roses français. Auteur sur la franc-maçonnerie et avocat au parlement de Paris, adjoint au maire du 1er arrondissement.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Claude Antoine Thory est connu pour avoir rédigé les notices descriptives de l'ouvrage de botanique, « Les Roses, décrites et classées selon leur ordre naturel », publié en 1828 et illustré par Pierre Joseph Redouté.
-Franc-maçon du Grand Orient de France, il est l'auteur d'un réfutation argumentée et historique de la « patente Gerbier », qui revendique sa prééminence sur les hauts-grades de franc-maçonnerie du XVIIIe siècle, lors de la codification des Ordres de Sagesse entre 1783 et 1786. Sa démonstration sur la fausseté de ce document est corroborée par les historiens contemporains[1].
+Franc-maçon du Grand Orient de France, il est l'auteur d'un réfutation argumentée et historique de la « patente Gerbier », qui revendique sa prééminence sur les hauts-grades de franc-maçonnerie du XVIIIe siècle, lors de la codification des Ordres de Sagesse entre 1783 et 1786. Sa démonstration sur la fausseté de ce document est corroborée par les historiens contemporains.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>"Les Roses" (Tome 1, 2 et 3 - Texte intégral)
 Histoire de la Franc-maçonnerie et de la Grande Loge d'Écosse, 1813, Editions Ivoire-clair, 2001 (traduction du livre original d'Alexander Lawrie, 1804).</t>
